--- a/data/uploaded_employees.xlsx
+++ b/data/uploaded_employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,168 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INVALID_COL1</t>
+          <t>EMP ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVALID_COL2</t>
+          <t>EMP NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LOCATION</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GRADE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EXTENSION NUMBER</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data1</t>
+          <t>TEST001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data3</t>
+          <t>Test Employee 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IFC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>test1@company.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data2</t>
+          <t>TEST002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data4</t>
+          <t>Test Employee 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9876543211</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>test2@company.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test Employee 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Senior Manager</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9876543212</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>test3@company.com</t>
         </is>
       </c>
     </row>

--- a/data/uploaded_employees.xlsx
+++ b/data/uploaded_employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,168 +436,36 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>EMP ID</t>
+          <t>INVALID_COL1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>EMP NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEPARTMENT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EXTENSION NUMBER</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
+          <t>INVALID_COL2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEST001</t>
+          <t>Data1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Employee 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IFC</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9876543210</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>test1@company.com</t>
+          <t>Data3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEST002</t>
+          <t>Data2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test Employee 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9876543211</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>test2@company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TEST003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Test Employee 3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Senior Manager</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9876543212</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>test3@company.com</t>
+          <t>Data4</t>
         </is>
       </c>
     </row>
